--- a/membres.xlsx
+++ b/membres.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoeunes/code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoeunes/code/membership/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -374,7 +374,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
